--- a/Document/TimeSheet/TimeSheet_Tuan_2.xlsx
+++ b/Document/TimeSheet/TimeSheet_Tuan_2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hoc_Tap\Nam 4 KHTN\HKI\QLDA\HoatDong\Noplan2_Nhom1\TimeSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hoc_Tap\Nam 4 KHTN\HKI\QLDA\HoatDong\01-Đề tài 3\Management\TimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="7905" tabRatio="726" activeTab="2"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="19560" windowHeight="7905" tabRatio="726" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1312385" sheetId="5" r:id="rId1"/>
@@ -163,7 +163,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                                     </t>
+      <t xml:space="preserve">                                </t>
     </r>
     <r>
       <rPr>
@@ -173,6 +173,987 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">Nguyễn Nguyên Quốc Time Sheet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tháng 10                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tuần 2:   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20/10/2016        </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nhóm 1  Quản lý quy trình phần mềm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Huỳnh Kim Thiên Ngọc Time Sheet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tháng 10                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tuần 2:   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20/10/2016        </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nhóm 1  Quản lý quy trình phần mềm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Trần Hữu Phước Time Sheet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tháng 10                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tuần 2:   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20/10/2016        </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nhóm 1  Quản lý quy trình phần mềm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Dương Trọng Quyền Time Sheet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tháng 10                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tuần 2:   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20/10/2016        </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nhóm 1  Quản lý quy trình phần mềm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Lê Tuấn Tài Time Sheet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tháng 10                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tuần 2:   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20/10/2016        </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nhóm 1  Quản lý quy trình phần mềm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nguyễn Anh Tài Time Sheet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tháng 10                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tuần 2:   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20/10/2016        </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nhóm 1  Quản lý quy trình phần mềm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Lê Minh Tâm Time Sheet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tháng 10                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tuần 2:   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20/10/2016        </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nhóm 1  Quản lý quy trình phần mềm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nguyễn Quốc Thái Time Sheet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tháng 10                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tuần 2:   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20/10/2016        </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nhóm 1  Quản lý quy trình phần mềm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nguyễn Xuân Thịnh Time Sheet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tháng 10                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tuần 2:   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20/10/2016        </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nhóm 1  Quản lý quy trình phần mềm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">Đinh Thị Tường Vi Time Sheet
 </t>
     </r>
@@ -213,988 +1194,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Tuần 1:   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20/10/2016        </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nhóm 1  Quản lý quy trình phần mềm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Nguyễn Xuân Thịnh Time Sheet
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tháng 10                       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tuần 1:   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20/10/2016        </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nhóm 1  Quản lý quy trình phần mềm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Nguyễn Quốc Thái Time Sheet
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tháng 10                       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tuần 1:   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20/10/2016        </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nhóm 1  Quản lý quy trình phần mềm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                             </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Lê Minh Tâm Time Sheet
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tháng 10                       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tuần 1:   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20/10/2016        </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nhóm 1  Quản lý quy trình phần mềm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Nguyễn Anh Tài Time Sheet
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tháng 10                       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tuần 1:   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20/10/2016        </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nhóm 1  Quản lý quy trình phần mềm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                              </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Lê Tuấn Tài Time Sheet
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tháng 10                       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tuần 1:   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20/10/2016        </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nhóm 1  Quản lý quy trình phần mềm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Dương Trọng Quyền Time Sheet
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tháng 10                       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tuần 1:   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20/10/2016        </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nhóm 1  Quản lý quy trình phần mềm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Nguyễn Nguyên Quốc Time Sheet
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tháng 10                       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tuần 1:   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20/10/2016        </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nhóm 1  Quản lý quy trình phần mềm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Trần Hữu Phước Time Sheet
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tháng 10                       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tuần 1:   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20/10/2016        </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nhóm 1  Quản lý quy trình phần mềm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                             </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Huỳnh Kim Thiên Ngọc Time Sheet
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tháng 10                       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tuần 1:   </t>
+      <t xml:space="preserve">Tuần 2:   </t>
     </r>
     <r>
       <rPr>
@@ -1523,6 +1523,13 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1538,13 +1545,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1828,7 +1828,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,27 +1840,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2029,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,27 +2042,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2224,7 +2224,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,27 +2236,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="A1" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
@@ -2418,8 +2418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,27 +2431,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2548,16 +2548,16 @@
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="26">
         <v>1.5</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="26">
         <v>-0.5</v>
       </c>
     </row>
@@ -2565,10 +2565,10 @@
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -2605,7 +2605,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,27 +2617,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2791,7 +2791,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2803,27 +2803,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2977,7 +2977,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2989,27 +2989,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3191,27 +3191,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3393,27 +3393,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3595,27 +3595,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
